--- a/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.196233117828806</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.2356311770439767</v>
+        <v>-0.235631177043976</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.007598369282229428</v>
@@ -664,7 +664,7 @@
         <v>0.2872094490087234</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2300738040550178</v>
+        <v>0.2300738040550164</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.221713089775719</v>
+        <v>-2.110237897041376</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.72675100648881</v>
+        <v>-2.916086966913655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.411688402539282</v>
+        <v>-1.665463515387222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.279244051698108</v>
+        <v>-2.241386394357501</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.209557121575054</v>
+        <v>-0.9874892608806156</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.234337598017954</v>
+        <v>-2.309561176983139</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.472639640442205</v>
+        <v>-1.648493826386211</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.433456006265389</v>
+        <v>-1.300552097501025</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.251874341781279</v>
+        <v>-1.336544590905639</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.328055553111932</v>
+        <v>2.345033481473952</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.558877935601216</v>
+        <v>1.383595905892113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.529527401188013</v>
+        <v>3.478421795353583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.909932325195325</v>
+        <v>1.762238913019938</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.479365453145697</v>
+        <v>3.637499331298455</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.93697002316997</v>
+        <v>1.773608946644753</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.463985493007145</v>
+        <v>1.397360048501992</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.894472105657526</v>
+        <v>1.865849480154534</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.04955126076846</v>
+        <v>2.101459007864571</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3217575896144666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06337905081686571</v>
+        <v>-0.06337905081686553</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.002150291211389575</v>
@@ -769,7 +769,7 @@
         <v>0.0812784863557323</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.06510945447038276</v>
+        <v>0.06510945447038237</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.476018353176725</v>
+        <v>-0.4686664300610696</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6129089271729011</v>
+        <v>-0.6265575557724316</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3625647546437001</v>
+        <v>-0.405055400158307</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4611976966838406</v>
+        <v>-0.4597130295398362</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2533486338745523</v>
+        <v>-0.204331612989698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4626966186946382</v>
+        <v>-0.4962621891942867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3564176829777884</v>
+        <v>-0.3644308549984452</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3441757519226472</v>
+        <v>-0.3011179864420915</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3003995711832637</v>
+        <v>-0.3229768665540724</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.140626452796762</v>
+        <v>1.05834582282242</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7805564875629267</v>
+        <v>0.7931366353616882</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.92867473341606</v>
+        <v>1.610898404033724</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7376441040975733</v>
+        <v>0.6987212130876609</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.360995943065745</v>
+        <v>1.33315143886095</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8110941959986488</v>
+        <v>0.6958423227798183</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5376930079960343</v>
+        <v>0.4969526632571823</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7027295029170882</v>
+        <v>0.686632886585804</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7291260189920867</v>
+        <v>0.7865171409929977</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4816524424210014</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6643379434792974</v>
+        <v>0.6643379434792966</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3623584552333706</v>
@@ -878,7 +878,7 @@
         <v>0.1107694364223616</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.391508458603344</v>
+        <v>-0.391508458603345</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.98522091433512</v>
+        <v>-3.004333086083897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.42358560454808</v>
+        <v>-2.279280941881905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.447611642521506</v>
+        <v>-3.476424389467731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1549881447050068</v>
+        <v>-0.1082517915513593</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.324975679295558</v>
+        <v>-1.202645384994513</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8677835285239875</v>
+        <v>-1.065309556539497</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9825041024825896</v>
+        <v>-0.9282042293972401</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.19509406993695</v>
+        <v>-1.277552294346069</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.585286167448201</v>
+        <v>-1.724253321845639</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9577791222961207</v>
+        <v>0.8925742634243087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.580889826141754</v>
+        <v>1.930994238153763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05732370574364984</v>
+        <v>0.3023039523420256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.715548869624234</v>
+        <v>3.711099825978352</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.004262438217945</v>
+        <v>2.152188096807404</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.250580242863521</v>
+        <v>2.296654417832664</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.664518664228291</v>
+        <v>1.765833034306744</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.303537908657585</v>
+        <v>1.359916654405089</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9527012706154088</v>
+        <v>0.8264823414182396</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.07891127693609927</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3866283880599159</v>
+        <v>-0.3866283880599158</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.6222677913268223</v>
@@ -974,7 +974,7 @@
         <v>0.1720977108888447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2373724894961825</v>
+        <v>0.2373724894961822</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1084689325987113</v>
@@ -983,7 +983,7 @@
         <v>0.03315789202588441</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1171947390622406</v>
+        <v>-0.1171947390622409</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5989914153115312</v>
+        <v>-0.6009771765492533</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4855123535062593</v>
+        <v>-0.4676434975599487</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6873566749171368</v>
+        <v>-0.6794220437211771</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07207951511240306</v>
+        <v>-0.05525107553977966</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.349622500897711</v>
+        <v>-0.3328141693411711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2610742808472984</v>
+        <v>-0.3029377662276725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.248998921376453</v>
+        <v>-0.2370282354974322</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3007456333719969</v>
+        <v>-0.3205212106983618</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3876653050191158</v>
+        <v>-0.4128660683655547</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.377583288551358</v>
+        <v>0.353474499473595</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5600037011726487</v>
+        <v>0.7138909599058597</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03328952327728176</v>
+        <v>0.132428788861504</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.804890688405183</v>
+        <v>1.859659429978108</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.030105303367331</v>
+        <v>1.054200603105705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.182500432756641</v>
+        <v>1.098327834379695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6049124746647239</v>
+        <v>0.6608486105095923</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4959285532612396</v>
+        <v>0.5107862038153572</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3702692732700064</v>
+        <v>0.306704894797123</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.5410245220371133</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.368653418234812</v>
+        <v>2.368653418234813</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.4811690484086653</v>
@@ -1092,7 +1092,7 @@
         <v>-0.2231584621774571</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.393323122147234</v>
+        <v>2.393323122147233</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.017939277212891</v>
+        <v>-1.825565075056778</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.924543266441631</v>
+        <v>-2.896472307333426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.07042282247246516</v>
+        <v>-0.06899734625881868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.208495995123044</v>
+        <v>-3.264223876442993</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.558659731076819</v>
+        <v>-1.778556353338423</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1917431109548363</v>
+        <v>0.1762722557886226</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.921476271364764</v>
+        <v>-2.032190373782549</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.602662039389867</v>
+        <v>-1.715822797167021</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6743569741161419</v>
+        <v>0.7882097169242137</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.525074008558879</v>
+        <v>2.488816149412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7487718270078277</v>
+        <v>1.14948713792489</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.082651551887749</v>
+        <v>5.024312486794678</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.664247183901705</v>
+        <v>0.5394176259112671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.734968868683649</v>
+        <v>2.58913401173688</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.482455666550335</v>
+        <v>4.550822598314619</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9958016091688233</v>
+        <v>0.9014503012564292</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.289340164113965</v>
+        <v>1.231613778624938</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.050595227480414</v>
+        <v>4.103845721040051</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1572108311447282</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6882829842395791</v>
+        <v>0.6882829842395793</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1440770399977299</v>
@@ -1197,7 +1197,7 @@
         <v>-0.06682061281228985</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7166356862260903</v>
+        <v>0.7166356862260901</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4418705588042762</v>
+        <v>-0.4266891954305978</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6602162111819518</v>
+        <v>-0.7086656477727179</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04333624490735422</v>
+        <v>-0.03603382424123869</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7136970806013712</v>
+        <v>-0.7163102494126092</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3622218719163592</v>
+        <v>-0.3914404442165405</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02760148764418715</v>
+        <v>0.005861354017936555</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4627131730911875</v>
+        <v>-0.4816798425197446</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4017748981416119</v>
+        <v>-0.414488791674216</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.149973486460529</v>
+        <v>0.1735786304526258</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.13740520631985</v>
+        <v>1.179816856663225</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4033413929153982</v>
+        <v>0.5784938485829009</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.252115722060571</v>
+        <v>2.47833857916408</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3692909480144741</v>
+        <v>0.2987986575765999</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.089602197090981</v>
+        <v>1.079433107968658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.805716558751213</v>
+        <v>2.031864955279449</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4203609848921026</v>
+        <v>0.3681193439654567</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5112712074075313</v>
+        <v>0.4777787575927378</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.467021735624267</v>
+        <v>1.564387267464172</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.5758988337716576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.756921391061953</v>
+        <v>-0.7569213910619526</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.2171839152923655</v>
@@ -1306,7 +1306,7 @@
         <v>-0.887135325717173</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.2522366864063798</v>
+        <v>-0.2522366864063812</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.377138260089991</v>
+        <v>-1.500792981521437</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.322731160162677</v>
+        <v>-2.343020681762973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.505201542504481</v>
+        <v>-2.566622691396359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.272492327456197</v>
+        <v>-2.194898265077408</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.961292971739244</v>
+        <v>-3.214468847027009</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.730416332187264</v>
+        <v>-1.693802857869438</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.247104087447726</v>
+        <v>-1.375487778999111</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.151961788109031</v>
+        <v>-2.281669341545927</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.522740508818747</v>
+        <v>-1.514906036786147</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.063106856212331</v>
+        <v>1.968687836525295</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.129569325302797</v>
+        <v>1.125983771335441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8014424129815515</v>
+        <v>0.7009508400828176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.527293943992197</v>
+        <v>1.627138304498141</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6428169568692217</v>
+        <v>0.5093921192924653</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.194093188447124</v>
+        <v>2.150180260937002</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.463726008463201</v>
+        <v>1.352095999104273</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2650841799812238</v>
+        <v>0.2822277435201638</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8587277883019795</v>
+        <v>1.118033386372636</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1829890168988954</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2405080425550736</v>
+        <v>-0.2405080425550735</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05446490931954472</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2466901320502692</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.07014070984853313</v>
+        <v>-0.0701407098485335</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3382811920893862</v>
+        <v>-0.3833695140669167</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5656052780364567</v>
+        <v>-0.5656970867996889</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6084565856165344</v>
+        <v>-0.6255247677598168</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.435696732075783</v>
+        <v>-0.4267022804448858</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5896774162528432</v>
+        <v>-0.609920846105505</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3677923411736015</v>
+        <v>-0.3384233008871816</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.289554545949232</v>
+        <v>-0.3092349609204483</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5025535714493158</v>
+        <v>-0.5130520327493652</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3575737198598369</v>
+        <v>-0.3617965681863283</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8728131381697929</v>
+        <v>0.857983631695481</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4929499043215467</v>
+        <v>0.5518480221685274</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3768917020402338</v>
+        <v>0.3306491656481657</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5130866618668597</v>
+        <v>0.5702058225681674</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2434651874442103</v>
+        <v>0.1795234243889033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7559343476084973</v>
+        <v>0.7009498531404331</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4920217445892334</v>
+        <v>0.4664918600286302</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1284601226317349</v>
+        <v>0.1101345750720129</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.288951063783318</v>
+        <v>0.4044263096787632</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.2200624388931406</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.3902801156772946</v>
+        <v>0.3902801156772953</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.02720650157459</v>
+        <v>-1.056134924136656</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.618433941282602</v>
+        <v>-1.430557217685523</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.019310293022618</v>
+        <v>-0.9591367816255457</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8630381631011266</v>
+        <v>-0.8095542630268722</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9752048968391769</v>
+        <v>-0.8460334159401282</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2414415888484865</v>
+        <v>-0.2278367572604442</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7187255412302382</v>
+        <v>-0.7028927137221909</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9324549638643135</v>
+        <v>-0.8863941304207436</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2782065531870285</v>
+        <v>-0.314053182028581</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.017315853231068</v>
+        <v>0.9314203821869343</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3141234979840458</v>
+        <v>0.5435868077700569</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.112419990942027</v>
+        <v>1.132651603810821</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.074132221353567</v>
+        <v>1.082275020484967</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.100779841847759</v>
+        <v>1.111436283902905</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.644160286644142</v>
+        <v>1.662260144705324</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7215847905525146</v>
+        <v>0.7108449756569768</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4997376386513719</v>
+        <v>0.470173033925156</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.087443341191662</v>
+        <v>1.109745253565241</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.06372882258840579</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1130228873990547</v>
+        <v>0.1130228873990549</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2607248435686445</v>
+        <v>-0.2707204375120969</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3988967564514663</v>
+        <v>-0.377382703240875</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2638602860558619</v>
+        <v>-0.249657831853746</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2141955146087672</v>
+        <v>-0.2066042028764061</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2416785809407535</v>
+        <v>-0.21459526104188</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06369402225583969</v>
+        <v>-0.0615182196958334</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1840232468631358</v>
+        <v>-0.1864243333925177</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2445169334519718</v>
+        <v>-0.2336620015134241</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.07654701144751277</v>
+        <v>-0.0878467322646613</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.350748567954628</v>
+        <v>0.2974511562538189</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1099265218084496</v>
+        <v>0.1928903946053313</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3736683482512158</v>
+        <v>0.3748225272567258</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3499633359200362</v>
+        <v>0.3678131442952895</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3842376086940616</v>
+        <v>0.3713756553172965</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5298655312724894</v>
+        <v>0.5666913234805384</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2372756680509922</v>
+        <v>0.2342684659717127</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1566813182175443</v>
+        <v>0.1505237079867104</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.344696910652227</v>
+        <v>0.3582013065195667</v>
       </c>
     </row>
     <row r="34">
